--- a/examples/2_circle2circle_analysis_files/circle-to-same-circle_gradient_max-primer.xlsx
+++ b/examples/2_circle2circle_analysis_files/circle-to-same-circle_gradient_max-primer.xlsx
@@ -509,7 +509,7 @@
         <v>0.108082994875797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1065552164574201</v>
+        <v>0.1065552164574277</v>
       </c>
     </row>
     <row r="5">
@@ -537,10 +537,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1416932661873914</v>
+        <v>0.1416932661873915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1280464736532334</v>
+        <v>0.1280464736532324</v>
       </c>
       <c r="D6" t="n">
         <v>0.115956801988969</v>
@@ -629,7 +629,7 @@
         <v>0.1143218237779782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1128709981853152</v>
+        <v>0.1128709981852986</v>
       </c>
     </row>
     <row r="11">
@@ -657,7 +657,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1227507054450214</v>
+        <v>0.1227507054450215</v>
       </c>
       <c r="C12" t="n">
         <v>0.1236012462510706</v>
@@ -677,16 +677,16 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1174432583592686</v>
+        <v>0.1174432583592684</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1213877751880754</v>
+        <v>0.1213877751880755</v>
       </c>
       <c r="D13" t="n">
         <v>0.1174804199255708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1147581903127291</v>
+        <v>0.1147581903127288</v>
       </c>
       <c r="F13" t="n">
         <v>0.1136918486318251</v>
@@ -717,7 +717,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1057046444184935</v>
+        <v>0.1057046444184934</v>
       </c>
       <c r="C15" t="n">
         <v>0.1159828853756075</v>
@@ -757,7 +757,7 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09303709989011615</v>
+        <v>0.0930370998901161</v>
       </c>
       <c r="C17" t="n">
         <v>0.1095186728500077</v>
@@ -769,7 +769,7 @@
         <v>0.1126002604669493</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1122434765420622</v>
+        <v>0.112243476542072</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08655497323666489</v>
+        <v>0.08655497323666497</v>
       </c>
       <c r="C18" t="n">
         <v>0.105978580580462</v>
@@ -803,7 +803,7 @@
         <v>0.1022764823466175</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1093255207429128</v>
+        <v>0.1093255207429085</v>
       </c>
       <c r="E19" t="n">
         <v>0.1103217695786517</v>
@@ -860,7 +860,7 @@
         <v>0.06113900661890908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09045236835019185</v>
+        <v>0.09045236835019217</v>
       </c>
       <c r="D22" t="n">
         <v>0.1024663952798165</v>
@@ -903,13 +903,13 @@
         <v>0.08211966781425441</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09674879665083526</v>
+        <v>0.09674879665083591</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1002708285871639</v>
+        <v>0.100270828587164</v>
       </c>
       <c r="F24" t="n">
-        <v>0.100679684279131</v>
+        <v>0.1006796842791332</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
         <v>0.03334978187021741</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06884090851459775</v>
+        <v>0.06884090851459787</v>
       </c>
       <c r="D27" t="n">
         <v>0.08569498531623095</v>
@@ -977,19 +977,19 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02847259924396142</v>
+        <v>0.02847259924396145</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06406970096099601</v>
+        <v>0.06406970096099603</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08103986365757526</v>
+        <v>0.08103986365757319</v>
       </c>
       <c r="E28" t="n">
         <v>0.08456770707817367</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0839539614423606</v>
+        <v>0.08395396144232632</v>
       </c>
     </row>
     <row r="29">
@@ -1046,7 +1046,7 @@
         <v>0.06226324979652697</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06342345675123066</v>
+        <v>0.06342345675122138</v>
       </c>
       <c r="F31" t="n">
         <v>0.06049557653615946</v>
@@ -1060,7 +1060,7 @@
         <v>0.01127682055880727</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04105961114195325</v>
+        <v>0.04105961114195322</v>
       </c>
       <c r="D32" t="n">
         <v>0.05379660584520697</v>
@@ -1083,7 +1083,7 @@
         <v>0.03371576425835403</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04395173944533991</v>
+        <v>0.04395173944534419</v>
       </c>
       <c r="E33" t="n">
         <v>0.04218183825447218</v>
@@ -1097,19 +1097,19 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004531873966271201</v>
+        <v>0.004531873966271204</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02553323948936971</v>
+        <v>0.02553323948936966</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03268640387413949</v>
+        <v>0.03268640387413889</v>
       </c>
       <c r="E34" t="n">
         <v>0.02921673072142614</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02302356718442585</v>
+        <v>0.02302356718442411</v>
       </c>
     </row>
     <row r="35">
@@ -1137,10 +1137,10 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0004114580022537418</v>
+        <v>0.0004114580022537421</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006958768091927358</v>
+        <v>0.006958768091927363</v>
       </c>
       <c r="D36" t="n">
         <v>0.006691494349319921</v>
@@ -1149,7 +1149,7 @@
         <v>8.711486792128975e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09911348212354328</v>
+        <v>0.09911348212354337</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1382230611018061</v>
+        <v>-0.1382230611018079</v>
       </c>
       <c r="C2" t="n">
         <v>-0.1213569857309467</v>
@@ -1216,7 +1216,7 @@
         <v>-0.1403912062342787</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1237614669002643</v>
+        <v>-0.1237614669002637</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1112006776777447</v>
@@ -1233,19 +1233,19 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1416974192582643</v>
+        <v>-0.1416974192582653</v>
       </c>
       <c r="C4" t="n">
         <v>-0.1256855508750177</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.113056621929238</v>
+        <v>-0.1130566219292412</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1080829948778669</v>
+        <v>-0.1080829948778556</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1065552164476656</v>
+        <v>-0.106555216454689</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1253,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1421303161383618</v>
+        <v>-0.1421303161383602</v>
       </c>
       <c r="C5" t="n">
         <v>-0.1271160166876598</v>
@@ -1262,7 +1262,7 @@
         <v>-0.1146439991730474</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1096147373912748</v>
+        <v>-0.1096147373912003</v>
       </c>
       <c r="F5" t="n">
         <v>-0.1080280751580862</v>
@@ -1273,10 +1273,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1416932661873897</v>
+        <v>-0.141693266187393</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1280464736532447</v>
+        <v>-0.1280464736532484</v>
       </c>
       <c r="D6" t="n">
         <v>-0.1159568019890699</v>
@@ -1296,7 +1296,7 @@
         <v>-0.1404043511994414</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1284773899389574</v>
+        <v>-0.1284773899389557</v>
       </c>
       <c r="D7" t="n">
         <v>-0.1169916717069698</v>
@@ -1319,13 +1319,13 @@
         <v>-0.1284159385062528</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1177478370692842</v>
+        <v>-0.1177478370692984</v>
       </c>
       <c r="E8" t="n">
         <v>-0.1130369442107054</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1114477759999876</v>
+        <v>-0.1114477760000406</v>
       </c>
     </row>
     <row r="9">
@@ -1333,19 +1333,19 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1354136174893457</v>
+        <v>-0.1354136174893444</v>
       </c>
       <c r="C9" t="n">
         <v>-0.1278756633902842</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1182269854170166</v>
+        <v>-0.1182269854170292</v>
       </c>
       <c r="E9" t="n">
         <v>-0.1137794141930013</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1122461794345351</v>
+        <v>-0.1122461794344846</v>
       </c>
     </row>
     <row r="10">
@@ -1356,7 +1356,7 @@
         <v>-0.1318152274865525</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1268759754567831</v>
+        <v>-0.1268759754567885</v>
       </c>
       <c r="D10" t="n">
         <v>-0.1184330669357799</v>
@@ -1365,7 +1365,7 @@
         <v>-0.1143218237733126</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1128709981817395</v>
+        <v>-0.1128709981941792</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1275688049802713</v>
+        <v>-0.1275688049802708</v>
       </c>
       <c r="C11" t="n">
         <v>-0.1254414927857695</v>
@@ -1393,10 +1393,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1227507054450201</v>
+        <v>-0.1227507054450205</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1236012462510575</v>
+        <v>-0.1236012462510555</v>
       </c>
       <c r="D12" t="n">
         <v>-0.1180515123102117</v>
@@ -1413,16 +1413,16 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1174432583592679</v>
+        <v>-0.1174432583592697</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1213877751880794</v>
+        <v>-0.1213877751880742</v>
       </c>
       <c r="D13" t="n">
         <v>-0.1174804199255802</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1147581903130279</v>
+        <v>-0.1147581903120405</v>
       </c>
       <c r="F13" t="n">
         <v>-0.1136918486281191</v>
@@ -1433,13 +1433,13 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1117322968876124</v>
+        <v>-0.1117322968876121</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.118836140770321</v>
+        <v>-0.1188361407703203</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.11666850970003</v>
+        <v>-0.1166685097000345</v>
       </c>
       <c r="E14" t="n">
         <v>-0.1145112360095273</v>
@@ -1453,10 +1453,10 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1057046444184929</v>
+        <v>-0.1057046444184934</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1159828853756137</v>
+        <v>-0.1159828853756131</v>
       </c>
       <c r="D15" t="n">
         <v>-0.115625857830442</v>
@@ -1473,19 +1473,19 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.09944568009385073</v>
+        <v>-0.09944568009385087</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1128649644425306</v>
+        <v>-0.112864964442528</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1143622783959761</v>
+        <v>-0.1143622783959745</v>
       </c>
       <c r="E16" t="n">
         <v>-0.1134334481483693</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1128908537429722</v>
+        <v>-0.1128908537430091</v>
       </c>
     </row>
     <row r="17">
@@ -1493,19 +1493,19 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09303709989011465</v>
+        <v>-0.09303709989011574</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1095186728500116</v>
+        <v>-0.1095186728499968</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1128866586336919</v>
+        <v>-0.1128866586336826</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1126002604666386</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1122434765684792</v>
+        <v>-0.1122434765345733</v>
       </c>
     </row>
     <row r="18">
@@ -1513,13 +1513,13 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.08655497323666524</v>
+        <v>-0.0865549732366637</v>
       </c>
       <c r="C18" t="n">
         <v>-0.1059785805804694</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1112061973576671</v>
+        <v>-0.1112061973576582</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1115656805635608</v>
@@ -1539,7 +1539,7 @@
         <v>-0.1022764823466254</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1093255207423019</v>
+        <v>-0.1093255207433165</v>
       </c>
       <c r="E19" t="n">
         <v>-0.1103217695770631</v>
@@ -1553,10 +1553,10 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07363719915687016</v>
+        <v>-0.07363719915687039</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09844035303839437</v>
+        <v>-0.09844035303839282</v>
       </c>
       <c r="D20" t="n">
         <v>-0.1072456381707831</v>
@@ -1576,7 +1576,7 @@
         <v>-0.06731347830902605</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09449328538754999</v>
+        <v>-0.09449328538754989</v>
       </c>
       <c r="D21" t="n">
         <v>-0.1049626866305922</v>
@@ -1593,10 +1593,10 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.06113900661890938</v>
+        <v>-0.06113900661890957</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.09045236835017997</v>
+        <v>-0.09045236835017942</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1024663952798279</v>
@@ -1605,7 +1605,7 @@
         <v>-0.1051767868464232</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1055534390997835</v>
+        <v>-0.1055534390998523</v>
       </c>
     </row>
     <row r="23">
@@ -1613,7 +1613,7 @@
         <v>220</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.05514641796045477</v>
+        <v>-0.05514641796045454</v>
       </c>
       <c r="C23" t="n">
         <v>-0.0863274449039181</v>
@@ -1622,7 +1622,7 @@
         <v>-0.09973818411421541</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1029003211396137</v>
+        <v>-0.1029003211395851</v>
       </c>
       <c r="F23" t="n">
         <v>-0.1033235056904755</v>
@@ -1639,13 +1639,13 @@
         <v>-0.082119667814256</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.09674879665086493</v>
+        <v>-0.09674879665086093</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1002708285876232</v>
+        <v>-0.1002708285871761</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1006796842800698</v>
+        <v>-0.1006796842783441</v>
       </c>
     </row>
     <row r="25">
@@ -1659,13 +1659,13 @@
         <v>-0.07781975569184614</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09345536747077625</v>
+        <v>-0.0934553674707805</v>
       </c>
       <c r="E25" t="n">
         <v>-0.09722223624698562</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.09753989661562044</v>
+        <v>-0.09753989661564076</v>
       </c>
     </row>
     <row r="26">
@@ -1673,7 +1673,7 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0384559834910606</v>
+        <v>-0.03845598349106064</v>
       </c>
       <c r="C26" t="n">
         <v>-0.07340584981089525</v>
@@ -1685,7 +1685,7 @@
         <v>-0.09366794021668637</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.09379894556561225</v>
+        <v>-0.09379894556557283</v>
       </c>
     </row>
     <row r="27">
@@ -1693,10 +1693,10 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03334978187021706</v>
+        <v>-0.03334978187021715</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0688409085145992</v>
+        <v>-0.06884090851459677</v>
       </c>
       <c r="D27" t="n">
         <v>-0.08569498531623648</v>
@@ -1713,19 +1713,19 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.02847259924396122</v>
+        <v>-0.02847259924396124</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.06406970096099884</v>
+        <v>-0.06406970096099514</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.08103986365742494</v>
+        <v>-0.08103986365765486</v>
       </c>
       <c r="E28" t="n">
         <v>-0.08456770707430666</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.08395396143633645</v>
+        <v>-0.08395396146048695</v>
       </c>
     </row>
     <row r="29">
@@ -1733,13 +1733,13 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.02382112196137116</v>
+        <v>-0.02382112196137111</v>
       </c>
       <c r="C29" t="n">
         <v>-0.05901577336699601</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.07569666473188581</v>
+        <v>-0.07569666473188204</v>
       </c>
       <c r="E29" t="n">
         <v>-0.07871145517908214</v>
@@ -1753,10 +1753,10 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01939500838278421</v>
+        <v>-0.0193950083827842</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05357942687111331</v>
+        <v>-0.05357942687111356</v>
       </c>
       <c r="D30" t="n">
         <v>-0.06950027009560246</v>
@@ -1773,16 +1773,16 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.01520367087932606</v>
+        <v>-0.01520367087932611</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04763899133606767</v>
+        <v>-0.04763899133606809</v>
       </c>
       <c r="D31" t="n">
         <v>-0.06226324979663621</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.06342345674946757</v>
+        <v>-0.06342345675037664</v>
       </c>
       <c r="F31" t="n">
         <v>-0.0604955765383209</v>
@@ -1796,7 +1796,7 @@
         <v>-0.01127682055880728</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.04105961114195301</v>
+        <v>-0.0410596111419548</v>
       </c>
       <c r="D32" t="n">
         <v>-0.05379660584524749</v>
@@ -1813,13 +1813,13 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.007679711431445487</v>
+        <v>-0.007679711431445486</v>
       </c>
       <c r="C33" t="n">
         <v>-0.03371576425835332</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04395173944537305</v>
+        <v>-0.04395173944530083</v>
       </c>
       <c r="E33" t="n">
         <v>-0.04218183825451827</v>
@@ -1833,19 +1833,19 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.004531873966271236</v>
+        <v>-0.004531873966271235</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02553323948936945</v>
+        <v>-0.02553323948936966</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03268640387413694</v>
+        <v>-0.03268640387415514</v>
       </c>
       <c r="E34" t="n">
         <v>-0.02921673072131331</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02302356718445371</v>
+        <v>-0.02302356718470107</v>
       </c>
     </row>
     <row r="35">
@@ -1853,10 +1853,10 @@
         <v>340</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.002022800703256056</v>
+        <v>-0.002022800703256055</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01654794817905839</v>
+        <v>-0.01654794817905842</v>
       </c>
       <c r="D35" t="n">
         <v>-0.02014161325643719</v>
@@ -1865,7 +1865,7 @@
         <v>-0.01500559542794267</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.007956591531351805</v>
+        <v>-0.00795659153135202</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0004114580022537584</v>
+        <v>-0.0004114580022537587</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.006958768091927466</v>
+        <v>-0.006958768091927477</v>
       </c>
       <c r="D36" t="n">
         <v>-0.006691494349319811</v>
@@ -1885,7 +1885,7 @@
         <v>-8.711486792081231e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.09911348212285838</v>
+        <v>-0.09911348212248169</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1941,7 @@
         <v>1.036197407179588</v>
       </c>
       <c r="F2" t="n">
-        <v>1.151869595659915</v>
+        <v>1.151869595659913</v>
       </c>
     </row>
     <row r="3">
@@ -1958,7 +1958,7 @@
         <v>1.000000000000006</v>
       </c>
       <c r="E3" t="n">
-        <v>1.047458779888279</v>
+        <v>1.047458779888278</v>
       </c>
       <c r="F3" t="n">
         <v>1.167802957701668</v>
@@ -1978,10 +1978,10 @@
         <v>0.9999999999999967</v>
       </c>
       <c r="E4" t="n">
-        <v>1.059291949791109</v>
+        <v>1.059291949791136</v>
       </c>
       <c r="F4" t="n">
-        <v>1.184149245137971</v>
+        <v>1.184149245138632</v>
       </c>
     </row>
     <row r="5">
@@ -2001,7 +2001,7 @@
         <v>1.071705945781712</v>
       </c>
       <c r="F5" t="n">
-        <v>1.200889457667925</v>
+        <v>1.200889457667975</v>
       </c>
     </row>
     <row r="6">
@@ -2098,10 +2098,10 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="E10" t="n">
-        <v>1.142109480308219</v>
+        <v>1.142109480308248</v>
       </c>
       <c r="F10" t="n">
-        <v>1.289405010155644</v>
+        <v>1.289405010155218</v>
       </c>
     </row>
     <row r="11">
@@ -2129,7 +2129,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2149,16 +2149,16 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D13" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.189034897837776</v>
+        <v>1.189034897838253</v>
       </c>
       <c r="F13" t="n">
         <v>1.343457309072895</v>
@@ -2215,7 +2215,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1.016526676824881</v>
+        <v>1.01652667682488</v>
       </c>
       <c r="E16" t="n">
         <v>1.235143177902839</v>
@@ -2229,7 +2229,7 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2241,7 +2241,7 @@
         <v>1.249192597725756</v>
       </c>
       <c r="F17" t="n">
-        <v>1.406930053639906</v>
+        <v>1.406930053644307</v>
       </c>
     </row>
     <row r="18">
@@ -2258,7 +2258,7 @@
         <v>1.039351327065481</v>
       </c>
       <c r="E18" t="n">
-        <v>1.262000736588562</v>
+        <v>1.262000736588559</v>
       </c>
       <c r="F18" t="n">
         <v>1.419144320616125</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.049854524489707</v>
+        <v>1.049854524488745</v>
       </c>
       <c r="E19" t="n">
         <v>1.273081821416334</v>
@@ -2292,10 +2292,10 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.059133374111311</v>
+        <v>1.05913337411132</v>
       </c>
       <c r="E20" t="n">
         <v>1.281870065966872</v>
@@ -2375,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.069778345485908</v>
+        <v>1.069778345485884</v>
       </c>
       <c r="E24" t="n">
-        <v>1.277271719613917</v>
+        <v>1.277271719613924</v>
       </c>
       <c r="F24" t="n">
-        <v>1.412045589612862</v>
+        <v>1.412045589614459</v>
       </c>
     </row>
     <row r="25">
@@ -2395,7 +2395,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1.060638822289279</v>
+        <v>1.060638822289291</v>
       </c>
       <c r="E25" t="n">
         <v>1.260077533137095</v>
@@ -2409,7 +2409,7 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>1.232931780534351</v>
       </c>
       <c r="F26" t="n">
-        <v>1.348928427026168</v>
+        <v>1.34892842702617</v>
       </c>
     </row>
     <row r="27">
@@ -2435,7 +2435,7 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="D27" t="n">
-        <v>1.01698811440101</v>
+        <v>1.016988114400988</v>
       </c>
       <c r="E27" t="n">
         <v>1.193332869754321</v>
@@ -2449,7 +2449,7 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>1.138284823237966</v>
       </c>
       <c r="F28" t="n">
-        <v>1.226108403849881</v>
+        <v>1.226108403835853</v>
       </c>
     </row>
     <row r="29">
@@ -2481,7 +2481,7 @@
         <v>1.064263196270983</v>
       </c>
       <c r="F29" t="n">
-        <v>1.133608246035086</v>
+        <v>1.133608246035084</v>
       </c>
     </row>
     <row r="30">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1.000000000000001</v>
@@ -2569,19 +2569,19 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="E34" t="n">
         <v>0.9999999999999997</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2612,7 +2612,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="F36" t="n">
-        <v>1.121169375918677</v>
+        <v>1.121169375918676</v>
       </c>
     </row>
   </sheetData>
